--- a/Documento fim de ano.xlsx
+++ b/Documento fim de ano.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\RPA _Pai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Meus projetos\Envio Whats\RPA_Envio_Whats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B879EA-48CF-4E85-94BA-E6A3B16C558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBCE14F-5506-405E-8D2A-C2C16C1DD037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{1784B7A4-9CF6-4938-AAA2-360FBE5B07BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20856" windowHeight="16776" xr2:uid="{1784B7A4-9CF6-4938-AAA2-360FBE5B07BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -54,22 +54,22 @@
     <t>Telefone</t>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>+55 (11) 90000-0000</t>
-  </si>
-  <si>
-    <t>+55 (11) 90000-0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana </t>
-  </si>
-  <si>
     <t>Manhã</t>
   </si>
   <si>
     <t>Integral</t>
+  </si>
+  <si>
+    <t>+55 11 96083-5109</t>
+  </si>
+  <si>
+    <t>Jéssica</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>+55 11 94636-4007</t>
   </si>
 </sst>
 </file>
@@ -478,21 +478,21 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -522,15 +522,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
@@ -539,18 +539,18 @@
         <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
@@ -559,7 +559,7 @@
         <v>210</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
